--- a/DE_Course.xlsx
+++ b/DE_Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamalmukiri/Documents/1.GitHub/Python-DataEngineering/Python-DataEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3CAB6-158D-FF40-8A30-26A1E0D977D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0DAE8-5DF1-134F-8483-EC8AD5E6ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{AF6F2739-5AAA-A14F-90A9-B39F9E6D7A28}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="187">
   <si>
     <t>File Type</t>
   </si>
@@ -3456,6 +3456,17 @@
       </rPr>
       <t>, Logs)</t>
     </r>
+  </si>
+  <si>
+    <t>Creating Virtual Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optionals: PyTest
+PyCov
+PyLint
+Logging
+PyDoc
+</t>
   </si>
 </sst>
 </file>
@@ -3772,7 +3783,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -3802,17 +3813,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3832,15 +3834,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3852,7 +3845,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3870,6 +3863,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -4208,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5D350A-3894-F94C-9A72-20A55ED6FA93}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4224,31 +4239,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -4256,12 +4271,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -4269,12 +4284,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -4282,55 +4297,55 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="27" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="E8" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -4338,12 +4353,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -4351,54 +4366,54 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="25" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>74</v>
       </c>
@@ -4407,10 +4422,10 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="29" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="11"/>
@@ -4420,11 +4435,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="13"/>
       <c r="D18" t="s">
         <v>130</v>
       </c>
@@ -4433,11 +4448,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="13"/>
       <c r="D19" t="s">
         <v>132</v>
       </c>
@@ -4446,61 +4461,61 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>82</v>
       </c>
@@ -4509,10 +4524,10 @@
       <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="33" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="11"/>
@@ -4520,7 +4535,7 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="13" t="s">
         <v>93</v>
       </c>
@@ -4529,7 +4544,7 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="13" t="s">
         <v>94</v>
       </c>
@@ -4538,7 +4553,7 @@
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="13" t="s">
         <v>95</v>
       </c>
@@ -4547,8 +4562,8 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="13"/>
@@ -4556,7 +4571,7 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="13" t="s">
         <v>96</v>
       </c>
@@ -4565,7 +4580,7 @@
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="13" t="s">
         <v>97</v>
       </c>
@@ -4574,7 +4589,7 @@
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="13" t="s">
         <v>98</v>
       </c>
@@ -4583,7 +4598,7 @@
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="15" t="s">
         <v>99</v>
       </c>
@@ -4591,278 +4606,289 @@
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B37" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B43" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="30" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" ht="35" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20" t="s">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="35" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="42" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="42" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" ht="35" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="35" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" ht="35" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="35" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5" ht="103" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+      <c r="B61" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-    </row>
-    <row r="65" spans="1:1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-    </row>
-    <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A64" s="19"/>
+    </row>
+    <row r="65" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+    </row>
+    <row r="66" spans="1:1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A60"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A37:A42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D42" r:id="rId1" xr:uid="{0A9505CC-8E37-CA42-8893-9681DD5B4675}"/>
+    <hyperlink ref="D43" r:id="rId1" xr:uid="{0A9505CC-8E37-CA42-8893-9681DD5B4675}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{8DE2020B-264E-4C4B-80B5-857E317C7CD6}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{21911C4C-2D27-9C4B-9A59-D1E164253D6B}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{C22A6F97-6FC5-B141-AA80-710B76CD2896}"/>
@@ -5141,7 +5167,7 @@
       <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5149,7 +5175,7 @@
       <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5157,7 +5183,7 @@
       <c r="B4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5165,7 +5191,7 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5173,7 +5199,7 @@
       <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="25" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5181,7 +5207,7 @@
       <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="25" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5189,7 +5215,7 @@
       <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="25" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5197,7 +5223,7 @@
       <c r="B9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5205,7 +5231,7 @@
       <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5213,7 +5239,7 @@
       <c r="B11" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5228,12 +5254,12 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="32" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5243,67 +5269,67 @@
       </c>
     </row>
     <row r="27" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="32" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="32" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5313,27 +5339,27 @@
       </c>
     </row>
     <row r="48" spans="2:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="32" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="32" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5343,37 +5369,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="32" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="35" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
